--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lama1-Itga7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lama1-Itga7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Lama1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.027949</v>
+        <v>0.06628666666666667</v>
       </c>
       <c r="H2">
-        <v>0.083847</v>
+        <v>0.19886</v>
       </c>
       <c r="I2">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="J2">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.165574666666667</v>
+        <v>2.655702666666667</v>
       </c>
       <c r="N2">
-        <v>9.496724</v>
+        <v>7.967108</v>
       </c>
       <c r="O2">
-        <v>0.07285974214006047</v>
+        <v>0.05887637219457465</v>
       </c>
       <c r="P2">
-        <v>0.07285974214006045</v>
+        <v>0.05887637219457464</v>
       </c>
       <c r="Q2">
-        <v>0.08847464635866667</v>
+        <v>0.1760376774311111</v>
       </c>
       <c r="R2">
-        <v>0.7962718172280001</v>
+        <v>1.58433909688</v>
       </c>
       <c r="S2">
-        <v>0.003142414594964299</v>
+        <v>0.005796592875757669</v>
       </c>
       <c r="T2">
-        <v>0.003142414594964299</v>
+        <v>0.005796592875757668</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.027949</v>
+        <v>0.06628666666666667</v>
       </c>
       <c r="H3">
-        <v>0.083847</v>
+        <v>0.19886</v>
       </c>
       <c r="I3">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="J3">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>15.064787</v>
       </c>
       <c r="O3">
-        <v>0.1155784348597406</v>
+        <v>0.111327724745791</v>
       </c>
       <c r="P3">
-        <v>0.1155784348597406</v>
+        <v>0.111327724745791</v>
       </c>
       <c r="Q3">
-        <v>0.1403485772876667</v>
+        <v>0.3328648380911111</v>
       </c>
       <c r="R3">
-        <v>1.263137195589</v>
+        <v>2.99578354282</v>
       </c>
       <c r="S3">
-        <v>0.004984856518819378</v>
+        <v>0.01096061921076089</v>
       </c>
       <c r="T3">
-        <v>0.004984856518819377</v>
+        <v>0.01096061921076088</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.027949</v>
+        <v>0.06628666666666667</v>
       </c>
       <c r="H4">
-        <v>0.083847</v>
+        <v>0.19886</v>
       </c>
       <c r="I4">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="J4">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3650223333333334</v>
+        <v>0.9216453333333332</v>
       </c>
       <c r="N4">
-        <v>1.095067</v>
+        <v>2.764936</v>
       </c>
       <c r="O4">
-        <v>0.008401454990804157</v>
+        <v>0.02043268410948847</v>
       </c>
       <c r="P4">
-        <v>0.008401454990804155</v>
+        <v>0.02043268410948846</v>
       </c>
       <c r="Q4">
-        <v>0.01020200919433334</v>
+        <v>0.06109279699555555</v>
       </c>
       <c r="R4">
-        <v>0.09181808274900002</v>
+        <v>0.54983517296</v>
       </c>
       <c r="S4">
-        <v>0.0003623517460614599</v>
+        <v>0.002011672029489986</v>
       </c>
       <c r="T4">
-        <v>0.0003623517460614597</v>
+        <v>0.002011672029489986</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.027949</v>
+        <v>0.06628666666666667</v>
       </c>
       <c r="H5">
-        <v>0.083847</v>
+        <v>0.19886</v>
       </c>
       <c r="I5">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="J5">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.42231266666666</v>
+        <v>35.230657</v>
       </c>
       <c r="N5">
-        <v>103.266938</v>
+        <v>105.691971</v>
       </c>
       <c r="O5">
-        <v>0.7922734697010897</v>
+        <v>0.7810562907612387</v>
       </c>
       <c r="P5">
-        <v>0.7922734697010895</v>
+        <v>0.7810562907612385</v>
       </c>
       <c r="Q5">
-        <v>0.9620692167206666</v>
+        <v>2.335322817006667</v>
       </c>
       <c r="R5">
-        <v>8.658622950486</v>
+        <v>21.01790535306</v>
       </c>
       <c r="S5">
-        <v>0.03417047111703714</v>
+        <v>0.07689783119839548</v>
       </c>
       <c r="T5">
-        <v>0.03417047111703713</v>
+        <v>0.07689783119839547</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.027949</v>
+        <v>0.06628666666666667</v>
       </c>
       <c r="H6">
-        <v>0.083847</v>
+        <v>0.19886</v>
       </c>
       <c r="I6">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="J6">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4730086666666666</v>
+        <v>1.276824333333333</v>
       </c>
       <c r="N6">
-        <v>1.419026</v>
+        <v>3.830473</v>
       </c>
       <c r="O6">
-        <v>0.01088689830830521</v>
+        <v>0.02830692818890731</v>
       </c>
       <c r="P6">
-        <v>0.0108868983083052</v>
+        <v>0.02830692818890731</v>
       </c>
       <c r="Q6">
-        <v>0.01322011922466667</v>
+        <v>0.08463642897555557</v>
       </c>
       <c r="R6">
-        <v>0.118981073022</v>
+        <v>0.76172786078</v>
       </c>
       <c r="S6">
-        <v>0.0004695480265651407</v>
+        <v>0.00278691998433837</v>
       </c>
       <c r="T6">
-        <v>0.0004695480265651407</v>
+        <v>0.00278691998433837</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>1.757262</v>
       </c>
       <c r="I7">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790234</v>
       </c>
       <c r="J7">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790236</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.165574666666667</v>
+        <v>2.655702666666667</v>
       </c>
       <c r="N7">
-        <v>9.496724</v>
+        <v>7.967108</v>
       </c>
       <c r="O7">
-        <v>0.07285974214006047</v>
+        <v>0.05887637219457465</v>
       </c>
       <c r="P7">
-        <v>0.07285974214006045</v>
+        <v>0.05887637219457464</v>
       </c>
       <c r="Q7">
-        <v>1.854248023298667</v>
+        <v>1.555588459810667</v>
       </c>
       <c r="R7">
-        <v>16.688232209688</v>
+        <v>14.000296138296</v>
       </c>
       <c r="S7">
-        <v>0.06585859668176744</v>
+        <v>0.05122263094659394</v>
       </c>
       <c r="T7">
-        <v>0.06585859668176743</v>
+        <v>0.05122263094659395</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>1.757262</v>
       </c>
       <c r="I8">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790234</v>
       </c>
       <c r="J8">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790236</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>15.064787</v>
       </c>
       <c r="O8">
-        <v>0.1155784348597406</v>
+        <v>0.111327724745791</v>
       </c>
       <c r="P8">
-        <v>0.1155784348597406</v>
+        <v>0.111327724745791</v>
       </c>
       <c r="Q8">
         <v>2.941419748132666</v>
@@ -948,10 +948,10 @@
         <v>26.472777733194</v>
       </c>
       <c r="S8">
-        <v>0.1044724192394907</v>
+        <v>0.09685547438167602</v>
       </c>
       <c r="T8">
-        <v>0.1044724192394907</v>
+        <v>0.09685547438167602</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>1.757262</v>
       </c>
       <c r="I9">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790234</v>
       </c>
       <c r="J9">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790236</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3650223333333334</v>
+        <v>0.9216453333333332</v>
       </c>
       <c r="N9">
-        <v>1.095067</v>
+        <v>2.764936</v>
       </c>
       <c r="O9">
-        <v>0.008401454990804157</v>
+        <v>0.02043268410948847</v>
       </c>
       <c r="P9">
-        <v>0.008401454990804155</v>
+        <v>0.02043268410948846</v>
       </c>
       <c r="Q9">
-        <v>0.2138132918393334</v>
+        <v>0.5398574405813332</v>
       </c>
       <c r="R9">
-        <v>1.924319626554001</v>
+        <v>4.858716965231999</v>
       </c>
       <c r="S9">
-        <v>0.007594153088213687</v>
+        <v>0.0177765001201128</v>
       </c>
       <c r="T9">
-        <v>0.007594153088213686</v>
+        <v>0.0177765001201128</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>1.757262</v>
       </c>
       <c r="I10">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790234</v>
       </c>
       <c r="J10">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790236</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>34.42231266666666</v>
+        <v>35.230657</v>
       </c>
       <c r="N10">
-        <v>103.266938</v>
+        <v>105.691971</v>
       </c>
       <c r="O10">
-        <v>0.7922734697010897</v>
+        <v>0.7810562907612387</v>
       </c>
       <c r="P10">
-        <v>0.7922734697010895</v>
+        <v>0.7810562907612385</v>
       </c>
       <c r="Q10">
-        <v>20.16300733375066</v>
+        <v>20.636498260378</v>
       </c>
       <c r="R10">
-        <v>181.467066003756</v>
+        <v>185.728484343402</v>
       </c>
       <c r="S10">
-        <v>0.7161433374606953</v>
+        <v>0.679521455533314</v>
       </c>
       <c r="T10">
-        <v>0.716143337460695</v>
+        <v>0.679521455533314</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>1.757262</v>
       </c>
       <c r="I11">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790234</v>
       </c>
       <c r="J11">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790236</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4730086666666666</v>
+        <v>1.276824333333333</v>
       </c>
       <c r="N11">
-        <v>1.419026</v>
+        <v>3.830473</v>
       </c>
       <c r="O11">
-        <v>0.01088689830830521</v>
+        <v>0.02830692818890731</v>
       </c>
       <c r="P11">
-        <v>0.0108868983083052</v>
+        <v>0.02830692818890731</v>
       </c>
       <c r="Q11">
-        <v>0.2770667185346666</v>
+        <v>0.7479049605473334</v>
       </c>
       <c r="R11">
-        <v>2.493600466812</v>
+        <v>6.731144644926</v>
       </c>
       <c r="S11">
-        <v>0.009840768354955004</v>
+        <v>0.02462711749732683</v>
       </c>
       <c r="T11">
-        <v>0.009840768354955003</v>
+        <v>0.02462711749732683</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.03432</v>
+        <v>0.01811333333333333</v>
       </c>
       <c r="H12">
-        <v>0.10296</v>
+        <v>0.05434</v>
       </c>
       <c r="I12">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611817</v>
       </c>
       <c r="J12">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611818</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.165574666666667</v>
+        <v>2.655702666666667</v>
       </c>
       <c r="N12">
-        <v>9.496724</v>
+        <v>7.967108</v>
       </c>
       <c r="O12">
-        <v>0.07285974214006047</v>
+        <v>0.05887637219457465</v>
       </c>
       <c r="P12">
-        <v>0.07285974214006045</v>
+        <v>0.05887637219457464</v>
       </c>
       <c r="Q12">
-        <v>0.10864252256</v>
+        <v>0.04810362763555555</v>
       </c>
       <c r="R12">
-        <v>0.97778270304</v>
+        <v>0.43293264872</v>
       </c>
       <c r="S12">
-        <v>0.003858730863328732</v>
+        <v>0.00158396287271785</v>
       </c>
       <c r="T12">
-        <v>0.003858730863328732</v>
+        <v>0.00158396287271785</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.03432</v>
+        <v>0.01811333333333333</v>
       </c>
       <c r="H13">
-        <v>0.10296</v>
+        <v>0.05434</v>
       </c>
       <c r="I13">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611817</v>
       </c>
       <c r="J13">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611818</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>15.064787</v>
       </c>
       <c r="O13">
-        <v>0.1155784348597406</v>
+        <v>0.111327724745791</v>
       </c>
       <c r="P13">
-        <v>0.1155784348597406</v>
+        <v>0.111327724745791</v>
       </c>
       <c r="Q13">
-        <v>0.17234116328</v>
+        <v>0.09095783617555554</v>
       </c>
       <c r="R13">
-        <v>1.55107046952</v>
+        <v>0.81862052558</v>
       </c>
       <c r="S13">
-        <v>0.0061211591014305</v>
+        <v>0.002995072150823426</v>
       </c>
       <c r="T13">
-        <v>0.006121159101430499</v>
+        <v>0.002995072150823425</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.03432</v>
+        <v>0.01811333333333333</v>
       </c>
       <c r="H14">
-        <v>0.10296</v>
+        <v>0.05434</v>
       </c>
       <c r="I14">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611817</v>
       </c>
       <c r="J14">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611818</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3650223333333334</v>
+        <v>0.9216453333333332</v>
       </c>
       <c r="N14">
-        <v>1.095067</v>
+        <v>2.764936</v>
       </c>
       <c r="O14">
-        <v>0.008401454990804157</v>
+        <v>0.02043268410948847</v>
       </c>
       <c r="P14">
-        <v>0.008401454990804155</v>
+        <v>0.02043268410948846</v>
       </c>
       <c r="Q14">
-        <v>0.01252756648</v>
+        <v>0.01669406913777777</v>
       </c>
       <c r="R14">
-        <v>0.11274809832</v>
+        <v>0.15024662224</v>
       </c>
       <c r="S14">
-        <v>0.00044495015652901</v>
+        <v>0.0005497046066704507</v>
       </c>
       <c r="T14">
-        <v>0.0004449501565290099</v>
+        <v>0.0005497046066704507</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.03432</v>
+        <v>0.01811333333333333</v>
       </c>
       <c r="H15">
-        <v>0.10296</v>
+        <v>0.05434</v>
       </c>
       <c r="I15">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611817</v>
       </c>
       <c r="J15">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611818</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>34.42231266666666</v>
+        <v>35.230657</v>
       </c>
       <c r="N15">
-        <v>103.266938</v>
+        <v>105.691971</v>
       </c>
       <c r="O15">
-        <v>0.7922734697010897</v>
+        <v>0.7810562907612387</v>
       </c>
       <c r="P15">
-        <v>0.7922734697010895</v>
+        <v>0.7810562907612385</v>
       </c>
       <c r="Q15">
-        <v>1.18137377072</v>
+        <v>0.6381446337933333</v>
       </c>
       <c r="R15">
-        <v>10.63236393648</v>
+        <v>5.743301704139999</v>
       </c>
       <c r="S15">
-        <v>0.04195966112335735</v>
+        <v>0.02101291434838987</v>
       </c>
       <c r="T15">
-        <v>0.04195966112335733</v>
+        <v>0.02101291434838987</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.03432</v>
+        <v>0.01811333333333333</v>
       </c>
       <c r="H16">
-        <v>0.10296</v>
+        <v>0.05434</v>
       </c>
       <c r="I16">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611817</v>
       </c>
       <c r="J16">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611818</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4730086666666666</v>
+        <v>1.276824333333333</v>
       </c>
       <c r="N16">
-        <v>1.419026</v>
+        <v>3.830473</v>
       </c>
       <c r="O16">
-        <v>0.01088689830830521</v>
+        <v>0.02830692818890731</v>
       </c>
       <c r="P16">
-        <v>0.0108868983083052</v>
+        <v>0.02830692818890731</v>
       </c>
       <c r="Q16">
-        <v>0.01623365744</v>
+        <v>0.02312754475777777</v>
       </c>
       <c r="R16">
-        <v>0.14610291696</v>
+        <v>0.20814790282</v>
       </c>
       <c r="S16">
-        <v>0.0005765819267850595</v>
+        <v>0.0007615469775165796</v>
       </c>
       <c r="T16">
-        <v>0.0005765819267850595</v>
+        <v>0.0007615469775165796</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.003124</v>
+      </c>
+      <c r="H17">
+        <v>0.009372</v>
+      </c>
+      <c r="I17">
+        <v>0.004639985266115928</v>
+      </c>
+      <c r="J17">
+        <v>0.004639985266115929</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.655702666666667</v>
+      </c>
+      <c r="N17">
+        <v>7.967108</v>
+      </c>
+      <c r="O17">
+        <v>0.05887637219457465</v>
+      </c>
+      <c r="P17">
+        <v>0.05887637219457464</v>
+      </c>
+      <c r="Q17">
+        <v>0.008296415130666666</v>
+      </c>
+      <c r="R17">
+        <v>0.07466773617599999</v>
+      </c>
+      <c r="S17">
+        <v>0.0002731854995051839</v>
+      </c>
+      <c r="T17">
+        <v>0.0002731854995051839</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.003124</v>
+      </c>
+      <c r="H18">
+        <v>0.009372</v>
+      </c>
+      <c r="I18">
+        <v>0.004639985266115928</v>
+      </c>
+      <c r="J18">
+        <v>0.004639985266115929</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>5.021595666666666</v>
+      </c>
+      <c r="N18">
+        <v>15.064787</v>
+      </c>
+      <c r="O18">
+        <v>0.111327724745791</v>
+      </c>
+      <c r="P18">
+        <v>0.111327724745791</v>
+      </c>
+      <c r="Q18">
+        <v>0.01568746486266667</v>
+      </c>
+      <c r="R18">
+        <v>0.141187183764</v>
+      </c>
+      <c r="S18">
+        <v>0.00051655900253068</v>
+      </c>
+      <c r="T18">
+        <v>0.00051655900253068</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.003124</v>
+      </c>
+      <c r="H19">
+        <v>0.009372</v>
+      </c>
+      <c r="I19">
+        <v>0.004639985266115928</v>
+      </c>
+      <c r="J19">
+        <v>0.004639985266115929</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.9216453333333332</v>
+      </c>
+      <c r="N19">
+        <v>2.764936</v>
+      </c>
+      <c r="O19">
+        <v>0.02043268410948847</v>
+      </c>
+      <c r="P19">
+        <v>0.02043268410948846</v>
+      </c>
+      <c r="Q19">
+        <v>0.002879220021333333</v>
+      </c>
+      <c r="R19">
+        <v>0.025912980192</v>
+      </c>
+      <c r="S19">
+        <v>9.480735321522754E-05</v>
+      </c>
+      <c r="T19">
+        <v>9.480735321522754E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.003124</v>
+      </c>
+      <c r="H20">
+        <v>0.009372</v>
+      </c>
+      <c r="I20">
+        <v>0.004639985266115928</v>
+      </c>
+      <c r="J20">
+        <v>0.004639985266115929</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>35.230657</v>
+      </c>
+      <c r="N20">
+        <v>105.691971</v>
+      </c>
+      <c r="O20">
+        <v>0.7810562907612387</v>
+      </c>
+      <c r="P20">
+        <v>0.7810562907612385</v>
+      </c>
+      <c r="Q20">
+        <v>0.110060572468</v>
+      </c>
+      <c r="R20">
+        <v>0.990545152212</v>
+      </c>
+      <c r="S20">
+        <v>0.003624089681139306</v>
+      </c>
+      <c r="T20">
+        <v>0.003624089681139306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.003124</v>
+      </c>
+      <c r="H21">
+        <v>0.009372</v>
+      </c>
+      <c r="I21">
+        <v>0.004639985266115928</v>
+      </c>
+      <c r="J21">
+        <v>0.004639985266115929</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.276824333333333</v>
+      </c>
+      <c r="N21">
+        <v>3.830473</v>
+      </c>
+      <c r="O21">
+        <v>0.02830692818890731</v>
+      </c>
+      <c r="P21">
+        <v>0.02830692818890731</v>
+      </c>
+      <c r="Q21">
+        <v>0.003988799217333333</v>
+      </c>
+      <c r="R21">
+        <v>0.035899192956</v>
+      </c>
+      <c r="S21">
+        <v>0.0001313437297255316</v>
+      </c>
+      <c r="T21">
+        <v>0.0001313437297255316</v>
       </c>
     </row>
   </sheetData>
